--- a/Data/Ex_Engineering.xlsx
+++ b/Data/Ex_Engineering.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research Group\Research Talks\BCCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224DC81C-A58D-4B25-A519-6E1E43A4B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC581EC-0658-48FA-95FA-995264190B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98D51C7C-FF8F-4F2B-8F23-1E432A925716}"/>
+    <workbookView xWindow="36030" yWindow="1245" windowWidth="23400" windowHeight="14610" activeTab="1" xr2:uid="{98D51C7C-FF8F-4F2B-8F23-1E432A925716}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametric Study" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Design Point 1</t>
   </si>
@@ -96,6 +97,30 @@
   </si>
   <si>
     <t>Total cells</t>
+  </si>
+  <si>
+    <t>Trial #</t>
+  </si>
+  <si>
+    <t>Target Mesh Size</t>
+  </si>
+  <si>
+    <t>Mesh Max</t>
+  </si>
+  <si>
+    <t>Mesh Min</t>
+  </si>
+  <si>
+    <t>Cell Count</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Iter</t>
+  </si>
+  <si>
+    <t>Pdif</t>
   </si>
 </sst>
 </file>
@@ -170,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -180,6 +205,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC4CB9B-1D08-4A30-8E02-51EA5FE35CDB}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -892,4 +918,408 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808D75B-DEBD-40D2-93A5-A5647A4FC50A}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>2433</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>1054.0899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3+(B3*0.1)</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3-(B3*0.1)</f>
+        <v>28.8</v>
+      </c>
+      <c r="E3">
+        <v>3613</v>
+      </c>
+      <c r="F3">
+        <v>35.6</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>1362.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25.5</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C15" si="0">B4+(B4*0.1)</f>
+        <v>28.05</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D11" si="1">B4-(B4*0.1)</f>
+        <v>22.95</v>
+      </c>
+      <c r="E4">
+        <v>9367</v>
+      </c>
+      <c r="F4">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>569.04300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>20353</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>154</v>
+      </c>
+      <c r="H5">
+        <v>577.87699999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15.8</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>17.380000000000003</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>14.22</v>
+      </c>
+      <c r="E6">
+        <v>39023</v>
+      </c>
+      <c r="F6">
+        <v>7.8</v>
+      </c>
+      <c r="G6">
+        <v>159</v>
+      </c>
+      <c r="H6">
+        <v>527.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12.6</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>13.86</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>11.34</v>
+      </c>
+      <c r="E7">
+        <v>73645</v>
+      </c>
+      <c r="F7">
+        <v>11.2</v>
+      </c>
+      <c r="G7">
+        <v>177</v>
+      </c>
+      <c r="H7">
+        <v>523.71600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>122505</v>
+      </c>
+      <c r="F8">
+        <v>27.3</v>
+      </c>
+      <c r="G8">
+        <v>273</v>
+      </c>
+      <c r="H8">
+        <v>518.98500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="E9">
+        <v>240897</v>
+      </c>
+      <c r="F9">
+        <v>359</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>507.61900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.3</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.93</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>5.67</v>
+      </c>
+      <c r="E10">
+        <v>378769</v>
+      </c>
+      <c r="F10">
+        <v>523</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>508.029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="E11">
+        <v>623734</v>
+      </c>
+      <c r="F11">
+        <v>178</v>
+      </c>
+      <c r="G11">
+        <v>388</v>
+      </c>
+      <c r="H11">
+        <v>513.60900000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D12" s="7">
+        <f>B12-(B12*0.1)</f>
+        <v>3.6</v>
+      </c>
+      <c r="E12">
+        <v>1572107</v>
+      </c>
+      <c r="F12">
+        <v>616.29999999999995</v>
+      </c>
+      <c r="G12">
+        <v>531</v>
+      </c>
+      <c r="H12">
+        <v>505.88799999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="D13" s="7">
+        <f>B13-(B13*0.1)</f>
+        <v>3.15</v>
+      </c>
+      <c r="E13">
+        <v>2274369</v>
+      </c>
+      <c r="F13">
+        <v>1048.5</v>
+      </c>
+      <c r="G13">
+        <v>609</v>
+      </c>
+      <c r="H13">
+        <v>506.68900000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <f>B14-(B14*0.1)</f>
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3.03</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3329999999999997</v>
+      </c>
+      <c r="D15" s="7">
+        <f>B15-(B15*0.1)</f>
+        <v>2.7269999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>